--- a/measurement_results/stm32_3node.xlsx
+++ b/measurement_results/stm32_3node.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25217"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="162" documentId="11_9248486D44C93C52631DEA188F3E8C1851038387" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B9B998B-2FE5-4BCF-8E74-C3BF37D25F56}"/>
+  <xr:revisionPtr revIDLastSave="178" documentId="11_9248486D44C93C52631DEA188F3E8C1851038387" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC4D7F75-6414-4633-A0EA-60DDD2A53545}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="100ms" sheetId="5" r:id="rId1"/>
@@ -106,7 +106,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -138,11 +138,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -155,6 +168,11 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -470,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCFBE786-6990-4AE4-A059-356E2BC655F7}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -777,136 +795,6 @@
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" ht="18.75">
-      <c r="A24" s="1">
-        <v>3</v>
-      </c>
-      <c r="B24" s="1">
-        <v>100</v>
-      </c>
-      <c r="C24" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" ht="18.75">
-      <c r="A25" s="1">
-        <v>3</v>
-      </c>
-      <c r="B25" s="1">
-        <v>100</v>
-      </c>
-      <c r="C25" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" ht="18.75">
-      <c r="A26" s="1">
-        <v>3</v>
-      </c>
-      <c r="B26" s="1">
-        <v>100</v>
-      </c>
-      <c r="C26" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" ht="18.75">
-      <c r="A27" s="1">
-        <v>3</v>
-      </c>
-      <c r="B27" s="1">
-        <v>100</v>
-      </c>
-      <c r="C27" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:5" ht="18.75">
-      <c r="A28" s="1">
-        <v>3</v>
-      </c>
-      <c r="B28" s="1">
-        <v>100</v>
-      </c>
-      <c r="C28" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:5" ht="18.75">
-      <c r="A29" s="1">
-        <v>3</v>
-      </c>
-      <c r="B29" s="1">
-        <v>100</v>
-      </c>
-      <c r="C29" s="1">
-        <v>13000</v>
-      </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" ht="18.75">
-      <c r="A30" s="1">
-        <v>3</v>
-      </c>
-      <c r="B30" s="1">
-        <v>100</v>
-      </c>
-      <c r="C30" s="1">
-        <v>13000</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" ht="18.75">
-      <c r="A31" s="1">
-        <v>3</v>
-      </c>
-      <c r="B31" s="1">
-        <v>100</v>
-      </c>
-      <c r="C31" s="1">
-        <v>13000</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:5" ht="18.75">
-      <c r="A32" s="1">
-        <v>3</v>
-      </c>
-      <c r="B32" s="1">
-        <v>100</v>
-      </c>
-      <c r="C32" s="1">
-        <v>13000</v>
-      </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:5" ht="18.75">
-      <c r="A33" s="1">
-        <v>3</v>
-      </c>
-      <c r="B33" s="1">
-        <v>100</v>
-      </c>
-      <c r="C33" s="1">
-        <v>13000</v>
-      </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1814,10 +1702,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A508BED0-CAC6-4C06-AC11-0BA3192E3681}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="E43" sqref="A34:E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2240,17 +2128,147 @@
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" ht="18.75">
-      <c r="A33" s="1">
-        <v>3</v>
-      </c>
-      <c r="B33" s="1">
-        <v>1300</v>
-      </c>
-      <c r="C33" s="1">
+      <c r="A33" s="7">
+        <v>3</v>
+      </c>
+      <c r="B33" s="7">
+        <v>1300</v>
+      </c>
+      <c r="C33" s="7">
         <v>13000</v>
       </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="1:5" ht="18.75">
+      <c r="A34" s="1">
+        <v>3</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1300</v>
+      </c>
+      <c r="C34" s="5">
+        <v>16000</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="1:5" ht="18.75">
+      <c r="A35" s="1">
+        <v>3</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1300</v>
+      </c>
+      <c r="C35" s="5">
+        <v>16000</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="1:5" ht="18.75">
+      <c r="A36" s="1">
+        <v>3</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1300</v>
+      </c>
+      <c r="C36" s="5">
+        <v>16000</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="1:5" ht="18.75">
+      <c r="A37" s="1">
+        <v>3</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1300</v>
+      </c>
+      <c r="C37" s="5">
+        <v>16000</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="1:5" ht="18.75">
+      <c r="A38" s="1">
+        <v>3</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1300</v>
+      </c>
+      <c r="C38" s="5">
+        <v>16000</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="1:5" ht="18.75">
+      <c r="A39" s="1">
+        <v>3</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1300</v>
+      </c>
+      <c r="C39" s="5">
+        <v>21000</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" spans="1:5" ht="18.75">
+      <c r="A40" s="1">
+        <v>3</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1300</v>
+      </c>
+      <c r="C40" s="5">
+        <v>21000</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="1:5" ht="18.75">
+      <c r="A41" s="1">
+        <v>3</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1300</v>
+      </c>
+      <c r="C41" s="5">
+        <v>21000</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" spans="1:5" ht="18.75">
+      <c r="A42" s="1">
+        <v>3</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1300</v>
+      </c>
+      <c r="C42" s="5">
+        <v>21000</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43" spans="1:5" ht="18.75">
+      <c r="A43" s="1">
+        <v>3</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1300</v>
+      </c>
+      <c r="C43" s="5">
+        <v>21000</v>
+      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2262,10 +2280,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DAF4366-6F4E-445D-8597-2170EBBA0D8F}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2700,6 +2718,136 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
+    <row r="34" spans="1:5" ht="18.75">
+      <c r="A34" s="1">
+        <v>3</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2100</v>
+      </c>
+      <c r="C34" s="5">
+        <v>16000</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="1:5" ht="18.75">
+      <c r="A35" s="1">
+        <v>3</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2100</v>
+      </c>
+      <c r="C35" s="5">
+        <v>16000</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="1:5" ht="18.75">
+      <c r="A36" s="1">
+        <v>3</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2100</v>
+      </c>
+      <c r="C36" s="5">
+        <v>16000</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="1:5" ht="18.75">
+      <c r="A37" s="1">
+        <v>3</v>
+      </c>
+      <c r="B37" s="1">
+        <v>2100</v>
+      </c>
+      <c r="C37" s="5">
+        <v>16000</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="1:5" ht="18.75">
+      <c r="A38" s="1">
+        <v>3</v>
+      </c>
+      <c r="B38" s="1">
+        <v>2100</v>
+      </c>
+      <c r="C38" s="5">
+        <v>16000</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="1:5" ht="18.75">
+      <c r="A39" s="1">
+        <v>3</v>
+      </c>
+      <c r="B39" s="1">
+        <v>2100</v>
+      </c>
+      <c r="C39" s="5">
+        <v>21000</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" spans="1:5" ht="18.75">
+      <c r="A40" s="1">
+        <v>3</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2100</v>
+      </c>
+      <c r="C40" s="5">
+        <v>21000</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="1:5" ht="18.75">
+      <c r="A41" s="1">
+        <v>3</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2100</v>
+      </c>
+      <c r="C41" s="5">
+        <v>21000</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" spans="1:5" ht="18.75">
+      <c r="A42" s="1">
+        <v>3</v>
+      </c>
+      <c r="B42" s="1">
+        <v>2100</v>
+      </c>
+      <c r="C42" s="5">
+        <v>21000</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43" spans="1:5" ht="18.75">
+      <c r="A43" s="1">
+        <v>3</v>
+      </c>
+      <c r="B43" s="1">
+        <v>2100</v>
+      </c>
+      <c r="C43" s="5">
+        <v>21000</v>
+      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E2"/>
